--- a/tables/table_liver_univariate.xlsx
+++ b/tables/table_liver_univariate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\md1spsx\Documents\PaperRifampicin\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\md1spsx\Documents\GitHub\tristan-paper-first-in-human\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3770FF-B717-4853-B968-F9BF75D92C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4E3EFF-951B-431D-B879-51D7650DBC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="492" windowWidth="15804" windowHeight="10692" xr2:uid="{1D6EEBB6-DCDF-4CC4-B81F-9D35EA19CA1A}"/>
+    <workbookView xWindow="11436" yWindow="336" windowWidth="11472" windowHeight="11076" xr2:uid="{1D6EEBB6-DCDF-4CC4-B81F-9D35EA19CA1A}"/>
   </bookViews>
   <sheets>
     <sheet name="table_liver_univariate" sheetId="1" r:id="rId1"/>
@@ -46,60 +46,21 @@
     <t>HC</t>
   </si>
   <si>
-    <t xml:space="preserve">30 (5.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 (0.6) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">53 (12) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">148 (32) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9 (0.1) </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4 (0.08) </t>
   </si>
   <si>
-    <t xml:space="preserve">0.61 (0.1) </t>
-  </si>
-  <si>
     <t xml:space="preserve">0.14 (0.03) </t>
   </si>
   <si>
-    <t xml:space="preserve">1.5 (0.1) </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3 (0.07) </t>
   </si>
   <si>
-    <t xml:space="preserve">0.24 (0.11) </t>
-  </si>
-  <si>
     <t xml:space="preserve">0.08 (0.02) </t>
   </si>
   <si>
-    <t xml:space="preserve">16 (7) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 (13) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">64 (19) </t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2 (0.6) </t>
   </si>
   <si>
-    <t xml:space="preserve">0.78 (0.34) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9 (1.8) </t>
-  </si>
-  <si>
     <t xml:space="preserve">26 (4.3) </t>
   </si>
   <si>
@@ -115,15 +76,9 @@
     <t xml:space="preserve">-93 (2.5) </t>
   </si>
   <si>
-    <t xml:space="preserve">-50 (42) </t>
-  </si>
-  <si>
     <t xml:space="preserve">-92 (2.5) </t>
   </si>
   <si>
-    <t xml:space="preserve">-87 (2.0) </t>
-  </si>
-  <si>
     <t xml:space="preserve">-82 (2.8) </t>
   </si>
   <si>
@@ -139,15 +94,6 @@
     <t xml:space="preserve">-31 (76) </t>
   </si>
   <si>
-    <t xml:space="preserve">261 (410) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">130 (210) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">90 (170) </t>
-  </si>
-  <si>
     <t>RES(l) - Relative enhancement at 20 min (%)</t>
   </si>
   <si>
@@ -193,9 +139,6 @@
     <t>RER1(l) - Relative R1 enhancement at 20 min (%)</t>
   </si>
   <si>
-    <t xml:space="preserve">64 (14) </t>
-  </si>
-  <si>
     <t xml:space="preserve">8.9 (1.5) </t>
   </si>
   <si>
@@ -205,10 +148,67 @@
     <t>Cl - Liver blood clearance (mL/min)</t>
   </si>
   <si>
-    <t xml:space="preserve">280 (30) </t>
-  </si>
-  <si>
     <t xml:space="preserve">20 (4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 (4.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 (0.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.79 (0.34) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49 (42) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">265 (28) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">66 (23) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5 (1.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87 (1.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">87 (40) </t>
+  </si>
+  <si>
+    <t>205 (100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3 (0.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 (0.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7 (0.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46 (0.43) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (6.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">264 (420) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 (11) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">148 (240) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">66 (16) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">283 (550) </t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1460,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1477,7 +1477,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>3</v>
@@ -1492,27 +1492,27 @@
         <v>0</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F2" s="37">
         <v>11</v>
@@ -1523,42 +1523,42 @@
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F3" s="13">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G3" s="21">
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F4" s="43">
         <v>15</v>
@@ -1569,22 +1569,22 @@
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F5" s="49">
-        <v>8.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G5" s="50" t="s">
         <v>4</v>
@@ -1592,22 +1592,22 @@
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F6" s="15">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>4</v>
@@ -1615,22 +1615,22 @@
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F7" s="13">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>4</v>
@@ -1638,19 +1638,19 @@
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F8" s="9">
         <v>12</v>
@@ -1661,19 +1661,19 @@
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F9" s="13">
         <v>8.6999999999999993</v>
@@ -1684,19 +1684,19 @@
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F10" s="9">
         <v>4.5</v>
@@ -1707,19 +1707,19 @@
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="51" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B11" s="52" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F11" s="55">
         <v>3.1</v>
@@ -1730,65 +1730,65 @@
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F12" s="10">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="G12" s="7">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F13" s="14">
         <v>-0.9</v>
       </c>
       <c r="G13" s="22">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F14" s="23">
         <v>-0.7</v>
